--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.54967</v>
+        <v>13.86674266666667</v>
       </c>
       <c r="H2">
-        <v>52.64901</v>
+        <v>41.600228</v>
       </c>
       <c r="I2">
-        <v>0.9874120321709955</v>
+        <v>0.9894894203110381</v>
       </c>
       <c r="J2">
-        <v>0.9874120321709953</v>
+        <v>0.989489420311038</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.095195666666667</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N2">
-        <v>6.285587</v>
+        <v>0.227425</v>
       </c>
       <c r="O2">
-        <v>0.8546922300706357</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P2">
-        <v>0.8546922300706358</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q2">
-        <v>36.76999253543</v>
+        <v>1.051214650322222</v>
       </c>
       <c r="R2">
-        <v>330.92993281887</v>
+        <v>9.4609318529</v>
       </c>
       <c r="S2">
-        <v>0.8439333917748064</v>
+        <v>0.02789465468375711</v>
       </c>
       <c r="T2">
-        <v>0.8439333917748063</v>
+        <v>0.02789465468375711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.54967</v>
+        <v>13.86674266666667</v>
       </c>
       <c r="H3">
-        <v>52.64901</v>
+        <v>41.600228</v>
       </c>
       <c r="I3">
-        <v>0.9874120321709955</v>
+        <v>0.9894894203110381</v>
       </c>
       <c r="J3">
-        <v>0.9874120321709953</v>
+        <v>0.989489420311038</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.356208</v>
+        <v>2.095195666666667</v>
       </c>
       <c r="N3">
-        <v>1.068624</v>
+        <v>6.285587</v>
       </c>
       <c r="O3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q3">
-        <v>6.25133285136</v>
+        <v>29.05353914598178</v>
       </c>
       <c r="R3">
-        <v>56.26199566224</v>
+        <v>261.481852313836</v>
       </c>
       <c r="S3">
-        <v>0.143478640396189</v>
+        <v>0.7709542875660673</v>
       </c>
       <c r="T3">
-        <v>0.143478640396189</v>
+        <v>0.7709542875660672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09171866666666667</v>
+        <v>13.86674266666667</v>
       </c>
       <c r="H4">
-        <v>0.275156</v>
+        <v>41.600228</v>
       </c>
       <c r="I4">
-        <v>0.005160445469421788</v>
+        <v>0.9894894203110381</v>
       </c>
       <c r="J4">
-        <v>0.005160445469421788</v>
+        <v>0.989489420311038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.095195666666667</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N4">
-        <v>6.285587</v>
+        <v>1.554291</v>
       </c>
       <c r="O4">
-        <v>0.8546922300706357</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P4">
-        <v>0.8546922300706358</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q4">
-        <v>0.1921685529524444</v>
+        <v>7.184317775371999</v>
       </c>
       <c r="R4">
-        <v>1.729516976572</v>
+        <v>64.65885997834799</v>
       </c>
       <c r="S4">
-        <v>0.004410592646418017</v>
+        <v>0.1906404780612137</v>
       </c>
       <c r="T4">
-        <v>0.004410592646418017</v>
+        <v>0.1906404780612137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,45 +726,45 @@
         <v>0.275156</v>
       </c>
       <c r="I5">
-        <v>0.005160445469421788</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="J5">
-        <v>0.005160445469421788</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.356208</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N5">
-        <v>1.068624</v>
+        <v>0.227425</v>
       </c>
       <c r="O5">
-        <v>0.1453077699293643</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P5">
-        <v>0.1453077699293643</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q5">
-        <v>0.032670922816</v>
+        <v>0.006953039255555555</v>
       </c>
       <c r="R5">
-        <v>0.294038305344</v>
+        <v>0.0625773533</v>
       </c>
       <c r="S5">
-        <v>0.0007498528230037715</v>
+        <v>0.0001845033542644015</v>
       </c>
       <c r="T5">
-        <v>0.0007498528230037713</v>
+        <v>0.0001845033542644015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1320123333333333</v>
+        <v>0.09171866666666667</v>
       </c>
       <c r="H6">
-        <v>0.396037</v>
+        <v>0.275156</v>
       </c>
       <c r="I6">
-        <v>0.007427522359582915</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="J6">
-        <v>0.007427522359582914</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>6.285587</v>
       </c>
       <c r="O6">
-        <v>0.8546922300706357</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P6">
-        <v>0.8546922300706358</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q6">
-        <v>0.2765916687465555</v>
+        <v>0.1921685529524444</v>
       </c>
       <c r="R6">
-        <v>2.489325018719</v>
+        <v>1.729516976572</v>
       </c>
       <c r="S6">
-        <v>0.006348245649411432</v>
+        <v>0.005099315752536953</v>
       </c>
       <c r="T6">
-        <v>0.006348245649411432</v>
+        <v>0.005099315752536953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,46 +844,232 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1320123333333333</v>
+        <v>0.09171866666666667</v>
       </c>
       <c r="H7">
-        <v>0.396037</v>
+        <v>0.275156</v>
       </c>
       <c r="I7">
-        <v>0.007427522359582915</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="J7">
-        <v>0.007427522359582914</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.356208</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N7">
-        <v>1.068624</v>
+        <v>1.554291</v>
       </c>
       <c r="O7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q7">
-        <v>0.047023849232</v>
+        <v>0.04751916604399999</v>
       </c>
       <c r="R7">
-        <v>0.423214643088</v>
+        <v>0.427672494396</v>
       </c>
       <c r="S7">
-        <v>0.001079276710171483</v>
+        <v>0.001260951535684163</v>
       </c>
       <c r="T7">
-        <v>0.001079276710171483</v>
+        <v>0.001260951535684163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05557699999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.166731</v>
+      </c>
+      <c r="I8">
+        <v>0.003965809046476372</v>
+      </c>
+      <c r="J8">
+        <v>0.003965809046476372</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N8">
+        <v>0.227425</v>
+      </c>
+      <c r="O8">
+        <v>0.028190957994264</v>
+      </c>
+      <c r="P8">
+        <v>0.02819095799426401</v>
+      </c>
+      <c r="Q8">
+        <v>0.004213199741666666</v>
+      </c>
+      <c r="R8">
+        <v>0.037918797675</v>
+      </c>
+      <c r="S8">
+        <v>0.0001117999562424876</v>
+      </c>
+      <c r="T8">
+        <v>0.0001117999562424876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05557699999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.166731</v>
+      </c>
+      <c r="I9">
+        <v>0.003965809046476372</v>
+      </c>
+      <c r="J9">
+        <v>0.003965809046476372</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.285587</v>
+      </c>
+      <c r="O9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="P9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="Q9">
+        <v>0.1164446895663333</v>
+      </c>
+      <c r="R9">
+        <v>1.048002206097</v>
+      </c>
+      <c r="S9">
+        <v>0.003089934490747934</v>
+      </c>
+      <c r="T9">
+        <v>0.003089934490747934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05557699999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.166731</v>
+      </c>
+      <c r="I10">
+        <v>0.003965809046476372</v>
+      </c>
+      <c r="J10">
+        <v>0.003965809046476372</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5180969999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.554291</v>
+      </c>
+      <c r="O10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="P10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="Q10">
+        <v>0.02879427696899999</v>
+      </c>
+      <c r="R10">
+        <v>0.259148492721</v>
+      </c>
+      <c r="S10">
+        <v>0.0007640745994859504</v>
+      </c>
+      <c r="T10">
+        <v>0.0007640745994859505</v>
       </c>
     </row>
   </sheetData>
